--- a/scenario/scenario_tree/data.xlsx
+++ b/scenario/scenario_tree/data.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -215,7 +216,7 @@
                   <c:v>196.74199999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>74.488900000000001</c:v>
+                  <c:v>160.4889</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>215.83600000000001</c:v>
@@ -1467,7 +1468,7 @@
                   <c:v>202.267</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>88.638300000000001</c:v>
+                  <c:v>180.63829999999999</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>212.11500000000001</c:v>
@@ -2433,11 +2434,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="407970936"/>
-        <c:axId val="407971328"/>
+        <c:axId val="326707656"/>
+        <c:axId val="326708040"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="407970936"/>
+        <c:axId val="326707656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2479,7 +2480,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="407971328"/>
+        <c:crossAx val="326708040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2487,7 +2488,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="407971328"/>
+        <c:axId val="326708040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2538,7 +2539,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="407970936"/>
+        <c:crossAx val="326707656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3486,8 +3487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X32" sqref="X32"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="V14" sqref="V14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3554,7 +3555,7 @@
         <v>196.74199999999999</v>
       </c>
       <c r="U1">
-        <v>74.488900000000001</v>
+        <v>160.4889</v>
       </c>
       <c r="V1">
         <v>215.83600000000001</v>
@@ -4374,7 +4375,7 @@
         <v>202.267</v>
       </c>
       <c r="W12">
-        <v>88.638300000000001</v>
+        <v>180.63829999999999</v>
       </c>
       <c r="X12">
         <v>212.11500000000001</v>
@@ -4978,4 +4979,1509 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:T24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A1">
+        <v>207.45599999999999</v>
+      </c>
+      <c r="B1">
+        <v>207.45599999999999</v>
+      </c>
+      <c r="C1">
+        <v>207.45599999999999</v>
+      </c>
+      <c r="D1">
+        <v>207.45599999999999</v>
+      </c>
+      <c r="E1">
+        <v>207.45599999999999</v>
+      </c>
+      <c r="F1">
+        <v>207.45599999999999</v>
+      </c>
+      <c r="G1">
+        <v>207.45599999999999</v>
+      </c>
+      <c r="H1">
+        <v>207.45599999999999</v>
+      </c>
+      <c r="I1">
+        <v>207.45599999999999</v>
+      </c>
+      <c r="J1">
+        <v>207.45599999999999</v>
+      </c>
+      <c r="K1">
+        <v>207.45599999999999</v>
+      </c>
+      <c r="L1">
+        <v>207.45599999999999</v>
+      </c>
+      <c r="M1">
+        <v>207.45599999999999</v>
+      </c>
+      <c r="N1">
+        <v>207.45599999999999</v>
+      </c>
+      <c r="O1">
+        <v>207.45599999999999</v>
+      </c>
+      <c r="P1">
+        <v>207.45599999999999</v>
+      </c>
+      <c r="Q1">
+        <v>207.45599999999999</v>
+      </c>
+      <c r="R1">
+        <v>207.45599999999999</v>
+      </c>
+      <c r="S1">
+        <v>207.45599999999999</v>
+      </c>
+      <c r="T1">
+        <v>207.45599999999999</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>286.14699999999999</v>
+      </c>
+      <c r="B2">
+        <v>286.14699999999999</v>
+      </c>
+      <c r="C2">
+        <v>286.14699999999999</v>
+      </c>
+      <c r="D2">
+        <v>286.14699999999999</v>
+      </c>
+      <c r="E2">
+        <v>286.14699999999999</v>
+      </c>
+      <c r="F2">
+        <v>286.14699999999999</v>
+      </c>
+      <c r="G2">
+        <v>286.14699999999999</v>
+      </c>
+      <c r="H2">
+        <v>286.14699999999999</v>
+      </c>
+      <c r="I2">
+        <v>286.14699999999999</v>
+      </c>
+      <c r="J2">
+        <v>286.14699999999999</v>
+      </c>
+      <c r="K2">
+        <v>286.14699999999999</v>
+      </c>
+      <c r="L2">
+        <v>286.14699999999999</v>
+      </c>
+      <c r="M2">
+        <v>286.14699999999999</v>
+      </c>
+      <c r="N2">
+        <v>286.14699999999999</v>
+      </c>
+      <c r="O2">
+        <v>286.14699999999999</v>
+      </c>
+      <c r="P2">
+        <v>286.14699999999999</v>
+      </c>
+      <c r="Q2">
+        <v>286.14699999999999</v>
+      </c>
+      <c r="R2">
+        <v>286.14699999999999</v>
+      </c>
+      <c r="S2">
+        <v>286.14699999999999</v>
+      </c>
+      <c r="T2">
+        <v>286.14699999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>277.55900000000003</v>
+      </c>
+      <c r="B3">
+        <v>277.55900000000003</v>
+      </c>
+      <c r="C3">
+        <v>277.55900000000003</v>
+      </c>
+      <c r="D3">
+        <v>191.166</v>
+      </c>
+      <c r="E3">
+        <v>277.55900000000003</v>
+      </c>
+      <c r="F3">
+        <v>277.55900000000003</v>
+      </c>
+      <c r="G3">
+        <v>277.55900000000003</v>
+      </c>
+      <c r="H3">
+        <v>277.55900000000003</v>
+      </c>
+      <c r="I3">
+        <v>277.55900000000003</v>
+      </c>
+      <c r="J3">
+        <v>277.55900000000003</v>
+      </c>
+      <c r="K3">
+        <v>277.55900000000003</v>
+      </c>
+      <c r="L3">
+        <v>277.55900000000003</v>
+      </c>
+      <c r="M3">
+        <v>191.166</v>
+      </c>
+      <c r="N3">
+        <v>277.55900000000003</v>
+      </c>
+      <c r="O3">
+        <v>277.55900000000003</v>
+      </c>
+      <c r="P3">
+        <v>277.55900000000003</v>
+      </c>
+      <c r="Q3">
+        <v>277.55900000000003</v>
+      </c>
+      <c r="R3">
+        <v>277.55900000000003</v>
+      </c>
+      <c r="S3">
+        <v>277.55900000000003</v>
+      </c>
+      <c r="T3">
+        <v>191.166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>315.262</v>
+      </c>
+      <c r="B4">
+        <v>315.262</v>
+      </c>
+      <c r="C4">
+        <v>315.262</v>
+      </c>
+      <c r="D4">
+        <v>295.54500000000002</v>
+      </c>
+      <c r="E4">
+        <v>315.262</v>
+      </c>
+      <c r="F4">
+        <v>315.262</v>
+      </c>
+      <c r="G4">
+        <v>315.262</v>
+      </c>
+      <c r="H4">
+        <v>315.262</v>
+      </c>
+      <c r="I4">
+        <v>315.262</v>
+      </c>
+      <c r="J4">
+        <v>315.262</v>
+      </c>
+      <c r="K4">
+        <v>315.262</v>
+      </c>
+      <c r="L4">
+        <v>315.262</v>
+      </c>
+      <c r="M4">
+        <v>295.54500000000002</v>
+      </c>
+      <c r="N4">
+        <v>315.262</v>
+      </c>
+      <c r="O4">
+        <v>315.262</v>
+      </c>
+      <c r="P4">
+        <v>315.262</v>
+      </c>
+      <c r="Q4">
+        <v>315.262</v>
+      </c>
+      <c r="R4">
+        <v>315.262</v>
+      </c>
+      <c r="S4">
+        <v>315.262</v>
+      </c>
+      <c r="T4">
+        <v>295.54500000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>254.13900000000001</v>
+      </c>
+      <c r="B5">
+        <v>254.13900000000001</v>
+      </c>
+      <c r="C5">
+        <v>254.13900000000001</v>
+      </c>
+      <c r="D5">
+        <v>208.988</v>
+      </c>
+      <c r="E5">
+        <v>254.13900000000001</v>
+      </c>
+      <c r="F5">
+        <v>254.13900000000001</v>
+      </c>
+      <c r="G5">
+        <v>254.13900000000001</v>
+      </c>
+      <c r="H5">
+        <v>254.13900000000001</v>
+      </c>
+      <c r="I5">
+        <v>254.13900000000001</v>
+      </c>
+      <c r="J5">
+        <v>254.13900000000001</v>
+      </c>
+      <c r="K5">
+        <v>254.13900000000001</v>
+      </c>
+      <c r="L5">
+        <v>254.13900000000001</v>
+      </c>
+      <c r="M5">
+        <v>208.988</v>
+      </c>
+      <c r="N5">
+        <v>254.13900000000001</v>
+      </c>
+      <c r="O5">
+        <v>254.13900000000001</v>
+      </c>
+      <c r="P5">
+        <v>254.13900000000001</v>
+      </c>
+      <c r="Q5">
+        <v>254.13900000000001</v>
+      </c>
+      <c r="R5">
+        <v>254.13900000000001</v>
+      </c>
+      <c r="S5">
+        <v>254.13900000000001</v>
+      </c>
+      <c r="T5">
+        <v>208.988</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>310.84399999999999</v>
+      </c>
+      <c r="B6">
+        <v>310.84399999999999</v>
+      </c>
+      <c r="C6">
+        <v>310.84399999999999</v>
+      </c>
+      <c r="D6">
+        <v>258.10000000000002</v>
+      </c>
+      <c r="E6">
+        <v>310.84399999999999</v>
+      </c>
+      <c r="F6">
+        <v>310.84399999999999</v>
+      </c>
+      <c r="G6">
+        <v>310.84399999999999</v>
+      </c>
+      <c r="H6">
+        <v>165.68600000000001</v>
+      </c>
+      <c r="I6">
+        <v>310.84399999999999</v>
+      </c>
+      <c r="J6">
+        <v>310.84399999999999</v>
+      </c>
+      <c r="K6">
+        <v>165.68600000000001</v>
+      </c>
+      <c r="L6">
+        <v>310.84399999999999</v>
+      </c>
+      <c r="M6">
+        <v>258.10000000000002</v>
+      </c>
+      <c r="N6">
+        <v>310.84399999999999</v>
+      </c>
+      <c r="O6">
+        <v>310.84399999999999</v>
+      </c>
+      <c r="P6">
+        <v>310.84399999999999</v>
+      </c>
+      <c r="Q6">
+        <v>310.84399999999999</v>
+      </c>
+      <c r="R6">
+        <v>165.68600000000001</v>
+      </c>
+      <c r="S6">
+        <v>310.84399999999999</v>
+      </c>
+      <c r="T6">
+        <v>258.10000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>197.458</v>
+      </c>
+      <c r="B7">
+        <v>197.458</v>
+      </c>
+      <c r="C7">
+        <v>197.458</v>
+      </c>
+      <c r="D7">
+        <v>255.55199999999999</v>
+      </c>
+      <c r="E7">
+        <v>197.458</v>
+      </c>
+      <c r="F7">
+        <v>197.458</v>
+      </c>
+      <c r="G7">
+        <v>197.458</v>
+      </c>
+      <c r="H7">
+        <v>234.53700000000001</v>
+      </c>
+      <c r="I7">
+        <v>197.458</v>
+      </c>
+      <c r="J7">
+        <v>197.458</v>
+      </c>
+      <c r="K7">
+        <v>234.53700000000001</v>
+      </c>
+      <c r="L7">
+        <v>197.458</v>
+      </c>
+      <c r="M7">
+        <v>255.55199999999999</v>
+      </c>
+      <c r="N7">
+        <v>197.458</v>
+      </c>
+      <c r="O7">
+        <v>197.458</v>
+      </c>
+      <c r="P7">
+        <v>197.458</v>
+      </c>
+      <c r="Q7">
+        <v>197.458</v>
+      </c>
+      <c r="R7">
+        <v>234.53700000000001</v>
+      </c>
+      <c r="S7">
+        <v>197.458</v>
+      </c>
+      <c r="T7">
+        <v>255.55199999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>279.39499999999998</v>
+      </c>
+      <c r="B8">
+        <v>393.63900000000001</v>
+      </c>
+      <c r="C8">
+        <v>279.39499999999998</v>
+      </c>
+      <c r="D8">
+        <v>223.79400000000001</v>
+      </c>
+      <c r="E8">
+        <v>279.39499999999998</v>
+      </c>
+      <c r="F8">
+        <v>279.39499999999998</v>
+      </c>
+      <c r="G8">
+        <v>279.39499999999998</v>
+      </c>
+      <c r="H8">
+        <v>299.387</v>
+      </c>
+      <c r="I8">
+        <v>256.29399999999998</v>
+      </c>
+      <c r="J8">
+        <v>279.39499999999998</v>
+      </c>
+      <c r="K8">
+        <v>299.387</v>
+      </c>
+      <c r="L8">
+        <v>279.39499999999998</v>
+      </c>
+      <c r="M8">
+        <v>223.79400000000001</v>
+      </c>
+      <c r="N8">
+        <v>279.39499999999998</v>
+      </c>
+      <c r="O8">
+        <v>279.39499999999998</v>
+      </c>
+      <c r="P8">
+        <v>256.29399999999998</v>
+      </c>
+      <c r="Q8">
+        <v>256.29399999999998</v>
+      </c>
+      <c r="R8">
+        <v>299.387</v>
+      </c>
+      <c r="S8">
+        <v>256.29399999999998</v>
+      </c>
+      <c r="T8">
+        <v>223.79400000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>289.36</v>
+      </c>
+      <c r="B9">
+        <v>342.86200000000002</v>
+      </c>
+      <c r="C9">
+        <v>289.36</v>
+      </c>
+      <c r="D9">
+        <v>340.29</v>
+      </c>
+      <c r="E9">
+        <v>289.36</v>
+      </c>
+      <c r="F9">
+        <v>289.36</v>
+      </c>
+      <c r="G9">
+        <v>289.36</v>
+      </c>
+      <c r="H9">
+        <v>302.44200000000001</v>
+      </c>
+      <c r="I9">
+        <v>240.66800000000001</v>
+      </c>
+      <c r="J9">
+        <v>289.36</v>
+      </c>
+      <c r="K9">
+        <v>302.44200000000001</v>
+      </c>
+      <c r="L9">
+        <v>289.36</v>
+      </c>
+      <c r="M9">
+        <v>340.29</v>
+      </c>
+      <c r="N9">
+        <v>289.36</v>
+      </c>
+      <c r="O9">
+        <v>289.36</v>
+      </c>
+      <c r="P9">
+        <v>240.66800000000001</v>
+      </c>
+      <c r="Q9">
+        <v>240.66800000000001</v>
+      </c>
+      <c r="R9">
+        <v>302.44200000000001</v>
+      </c>
+      <c r="S9">
+        <v>240.66800000000001</v>
+      </c>
+      <c r="T9">
+        <v>340.29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>334.57100000000003</v>
+      </c>
+      <c r="B10">
+        <v>307.73500000000001</v>
+      </c>
+      <c r="C10">
+        <v>334.57100000000003</v>
+      </c>
+      <c r="D10">
+        <v>266.226</v>
+      </c>
+      <c r="E10">
+        <v>334.57100000000003</v>
+      </c>
+      <c r="F10">
+        <v>334.57100000000003</v>
+      </c>
+      <c r="G10">
+        <v>334.57100000000003</v>
+      </c>
+      <c r="H10">
+        <v>292.20100000000002</v>
+      </c>
+      <c r="I10">
+        <v>207.523</v>
+      </c>
+      <c r="J10">
+        <v>334.57100000000003</v>
+      </c>
+      <c r="K10">
+        <v>292.20100000000002</v>
+      </c>
+      <c r="L10">
+        <v>334.57100000000003</v>
+      </c>
+      <c r="M10">
+        <v>266.226</v>
+      </c>
+      <c r="N10">
+        <v>334.57100000000003</v>
+      </c>
+      <c r="O10">
+        <v>334.57100000000003</v>
+      </c>
+      <c r="P10">
+        <v>207.523</v>
+      </c>
+      <c r="Q10">
+        <v>207.523</v>
+      </c>
+      <c r="R10">
+        <v>292.20100000000002</v>
+      </c>
+      <c r="S10">
+        <v>207.523</v>
+      </c>
+      <c r="T10">
+        <v>266.226</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>344.62700000000001</v>
+      </c>
+      <c r="B11">
+        <v>373.63200000000001</v>
+      </c>
+      <c r="C11">
+        <v>344.62700000000001</v>
+      </c>
+      <c r="D11">
+        <v>254.381</v>
+      </c>
+      <c r="E11">
+        <v>344.62700000000001</v>
+      </c>
+      <c r="F11">
+        <v>344.62700000000001</v>
+      </c>
+      <c r="G11">
+        <v>344.62700000000001</v>
+      </c>
+      <c r="H11">
+        <v>261.488</v>
+      </c>
+      <c r="I11">
+        <v>316.01900000000001</v>
+      </c>
+      <c r="J11">
+        <v>344.62700000000001</v>
+      </c>
+      <c r="K11">
+        <v>261.488</v>
+      </c>
+      <c r="L11">
+        <v>344.62700000000001</v>
+      </c>
+      <c r="M11">
+        <v>254.381</v>
+      </c>
+      <c r="N11">
+        <v>344.62700000000001</v>
+      </c>
+      <c r="O11">
+        <v>344.62700000000001</v>
+      </c>
+      <c r="P11">
+        <v>316.01900000000001</v>
+      </c>
+      <c r="Q11">
+        <v>201.78100000000001</v>
+      </c>
+      <c r="R11">
+        <v>261.488</v>
+      </c>
+      <c r="S11">
+        <v>316.01900000000001</v>
+      </c>
+      <c r="T11">
+        <v>254.381</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>219.697</v>
+      </c>
+      <c r="B12">
+        <v>324.58100000000002</v>
+      </c>
+      <c r="C12">
+        <v>219.697</v>
+      </c>
+      <c r="D12">
+        <v>328.01600000000002</v>
+      </c>
+      <c r="E12">
+        <v>219.697</v>
+      </c>
+      <c r="F12">
+        <v>219.697</v>
+      </c>
+      <c r="G12">
+        <v>219.697</v>
+      </c>
+      <c r="H12">
+        <v>370.98</v>
+      </c>
+      <c r="I12">
+        <v>325.613</v>
+      </c>
+      <c r="J12">
+        <v>219.697</v>
+      </c>
+      <c r="K12">
+        <v>370.98</v>
+      </c>
+      <c r="L12">
+        <v>219.697</v>
+      </c>
+      <c r="M12">
+        <v>328.01600000000002</v>
+      </c>
+      <c r="N12">
+        <v>219.697</v>
+      </c>
+      <c r="O12">
+        <v>219.697</v>
+      </c>
+      <c r="P12">
+        <v>325.613</v>
+      </c>
+      <c r="Q12">
+        <v>305.85599999999999</v>
+      </c>
+      <c r="R12">
+        <v>370.98</v>
+      </c>
+      <c r="S12">
+        <v>325.613</v>
+      </c>
+      <c r="T12">
+        <v>328.01600000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>355.36099999999999</v>
+      </c>
+      <c r="B13">
+        <v>344.87700000000001</v>
+      </c>
+      <c r="C13">
+        <v>355.36099999999999</v>
+      </c>
+      <c r="D13">
+        <v>305.29199999999997</v>
+      </c>
+      <c r="E13">
+        <v>355.36099999999999</v>
+      </c>
+      <c r="F13">
+        <v>355.36099999999999</v>
+      </c>
+      <c r="G13">
+        <v>355.36099999999999</v>
+      </c>
+      <c r="H13">
+        <v>347.81099999999998</v>
+      </c>
+      <c r="I13">
+        <v>378.02</v>
+      </c>
+      <c r="J13">
+        <v>355.36099999999999</v>
+      </c>
+      <c r="K13">
+        <v>347.81099999999998</v>
+      </c>
+      <c r="L13">
+        <v>355.36099999999999</v>
+      </c>
+      <c r="M13">
+        <v>305.29199999999997</v>
+      </c>
+      <c r="N13">
+        <v>355.36099999999999</v>
+      </c>
+      <c r="O13">
+        <v>355.36099999999999</v>
+      </c>
+      <c r="P13">
+        <v>378.02</v>
+      </c>
+      <c r="Q13">
+        <v>353.21699999999998</v>
+      </c>
+      <c r="R13">
+        <v>347.81099999999998</v>
+      </c>
+      <c r="S13">
+        <v>378.02</v>
+      </c>
+      <c r="T13">
+        <v>305.29199999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>358.33</v>
+      </c>
+      <c r="B14">
+        <v>317.11700000000002</v>
+      </c>
+      <c r="C14">
+        <v>358.33</v>
+      </c>
+      <c r="D14">
+        <v>246.94</v>
+      </c>
+      <c r="E14">
+        <v>358.33</v>
+      </c>
+      <c r="F14">
+        <v>358.33</v>
+      </c>
+      <c r="G14">
+        <v>358.33</v>
+      </c>
+      <c r="H14">
+        <v>296.03899999999999</v>
+      </c>
+      <c r="I14">
+        <v>252.90700000000001</v>
+      </c>
+      <c r="J14">
+        <v>358.33</v>
+      </c>
+      <c r="K14">
+        <v>296.03899999999999</v>
+      </c>
+      <c r="L14">
+        <v>358.33</v>
+      </c>
+      <c r="M14">
+        <v>246.94</v>
+      </c>
+      <c r="N14">
+        <v>358.33</v>
+      </c>
+      <c r="O14">
+        <v>225.35599999999999</v>
+      </c>
+      <c r="P14">
+        <v>197.97800000000001</v>
+      </c>
+      <c r="Q14">
+        <v>378.04300000000001</v>
+      </c>
+      <c r="R14">
+        <v>296.03899999999999</v>
+      </c>
+      <c r="S14">
+        <v>252.90700000000001</v>
+      </c>
+      <c r="T14">
+        <v>246.94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>285.05500000000001</v>
+      </c>
+      <c r="B15">
+        <v>251.22200000000001</v>
+      </c>
+      <c r="C15">
+        <v>285.05500000000001</v>
+      </c>
+      <c r="D15">
+        <v>297.77800000000002</v>
+      </c>
+      <c r="E15">
+        <v>285.05500000000001</v>
+      </c>
+      <c r="F15">
+        <v>285.05500000000001</v>
+      </c>
+      <c r="G15">
+        <v>285.05500000000001</v>
+      </c>
+      <c r="H15">
+        <v>189.423</v>
+      </c>
+      <c r="I15">
+        <v>320.93200000000002</v>
+      </c>
+      <c r="J15">
+        <v>285.05500000000001</v>
+      </c>
+      <c r="K15">
+        <v>189.423</v>
+      </c>
+      <c r="L15">
+        <v>285.05500000000001</v>
+      </c>
+      <c r="M15">
+        <v>297.77800000000002</v>
+      </c>
+      <c r="N15">
+        <v>285.05500000000001</v>
+      </c>
+      <c r="O15">
+        <v>278.39499999999998</v>
+      </c>
+      <c r="P15">
+        <v>322.46300000000002</v>
+      </c>
+      <c r="Q15">
+        <v>254.155</v>
+      </c>
+      <c r="R15">
+        <v>189.423</v>
+      </c>
+      <c r="S15">
+        <v>320.93200000000002</v>
+      </c>
+      <c r="T15">
+        <v>297.77800000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>248.524</v>
+      </c>
+      <c r="B16">
+        <v>310.74900000000002</v>
+      </c>
+      <c r="C16">
+        <v>200.02199999999999</v>
+      </c>
+      <c r="D16">
+        <v>240.88</v>
+      </c>
+      <c r="E16">
+        <v>200.02199999999999</v>
+      </c>
+      <c r="F16">
+        <v>200.02199999999999</v>
+      </c>
+      <c r="G16">
+        <v>200.02199999999999</v>
+      </c>
+      <c r="H16">
+        <v>255.11099999999999</v>
+      </c>
+      <c r="I16">
+        <v>289.07799999999997</v>
+      </c>
+      <c r="J16">
+        <v>167.16200000000001</v>
+      </c>
+      <c r="K16">
+        <v>255.11099999999999</v>
+      </c>
+      <c r="L16">
+        <v>200.02199999999999</v>
+      </c>
+      <c r="M16">
+        <v>240.88</v>
+      </c>
+      <c r="N16">
+        <v>167.16200000000001</v>
+      </c>
+      <c r="O16">
+        <v>247.566</v>
+      </c>
+      <c r="P16">
+        <v>226.83600000000001</v>
+      </c>
+      <c r="Q16">
+        <v>256.63</v>
+      </c>
+      <c r="R16">
+        <v>255.11099999999999</v>
+      </c>
+      <c r="S16">
+        <v>289.07799999999997</v>
+      </c>
+      <c r="T16">
+        <v>240.88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>278.04399999999998</v>
+      </c>
+      <c r="B17">
+        <v>181.57400000000001</v>
+      </c>
+      <c r="C17">
+        <v>229.53299999999999</v>
+      </c>
+      <c r="D17">
+        <v>215.92500000000001</v>
+      </c>
+      <c r="E17">
+        <v>229.53299999999999</v>
+      </c>
+      <c r="F17">
+        <v>229.53299999999999</v>
+      </c>
+      <c r="G17">
+        <v>229.53299999999999</v>
+      </c>
+      <c r="H17">
+        <v>224.73400000000001</v>
+      </c>
+      <c r="I17">
+        <v>197.756</v>
+      </c>
+      <c r="J17">
+        <v>264.56700000000001</v>
+      </c>
+      <c r="K17">
+        <v>224.73400000000001</v>
+      </c>
+      <c r="L17">
+        <v>229.53299999999999</v>
+      </c>
+      <c r="M17">
+        <v>215.92500000000001</v>
+      </c>
+      <c r="N17">
+        <v>264.56700000000001</v>
+      </c>
+      <c r="O17">
+        <v>269.04899999999998</v>
+      </c>
+      <c r="P17">
+        <v>252.27099999999999</v>
+      </c>
+      <c r="Q17">
+        <v>240.76499999999999</v>
+      </c>
+      <c r="R17">
+        <v>224.73400000000001</v>
+      </c>
+      <c r="S17">
+        <v>197.756</v>
+      </c>
+      <c r="T17">
+        <v>215.92500000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>210.672</v>
+      </c>
+      <c r="B18">
+        <v>262.83800000000002</v>
+      </c>
+      <c r="C18">
+        <v>244.28</v>
+      </c>
+      <c r="D18">
+        <v>198.8</v>
+      </c>
+      <c r="E18">
+        <v>244.28</v>
+      </c>
+      <c r="F18">
+        <v>244.28</v>
+      </c>
+      <c r="G18">
+        <v>244.28</v>
+      </c>
+      <c r="H18">
+        <v>246.40700000000001</v>
+      </c>
+      <c r="I18">
+        <v>160.083</v>
+      </c>
+      <c r="J18">
+        <v>225.62700000000001</v>
+      </c>
+      <c r="K18">
+        <v>246.40700000000001</v>
+      </c>
+      <c r="L18">
+        <v>244.28</v>
+      </c>
+      <c r="M18">
+        <v>198.8</v>
+      </c>
+      <c r="N18">
+        <v>225.62700000000001</v>
+      </c>
+      <c r="O18">
+        <v>185.04300000000001</v>
+      </c>
+      <c r="P18">
+        <v>183.96</v>
+      </c>
+      <c r="Q18">
+        <v>210.298</v>
+      </c>
+      <c r="R18">
+        <v>246.40700000000001</v>
+      </c>
+      <c r="S18">
+        <v>160.083</v>
+      </c>
+      <c r="T18">
+        <v>198.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>249.02099999999999</v>
+      </c>
+      <c r="B19">
+        <v>174.136</v>
+      </c>
+      <c r="C19">
+        <v>189.18799999999999</v>
+      </c>
+      <c r="D19">
+        <v>211.14500000000001</v>
+      </c>
+      <c r="E19">
+        <v>189.18799999999999</v>
+      </c>
+      <c r="F19">
+        <v>195.61500000000001</v>
+      </c>
+      <c r="G19">
+        <v>195.61500000000001</v>
+      </c>
+      <c r="H19">
+        <v>236.49299999999999</v>
+      </c>
+      <c r="I19">
+        <v>147.30000000000001</v>
+      </c>
+      <c r="J19">
+        <v>227.52699999999999</v>
+      </c>
+      <c r="K19">
+        <v>236.49299999999999</v>
+      </c>
+      <c r="L19">
+        <v>195.61500000000001</v>
+      </c>
+      <c r="M19">
+        <v>227.40700000000001</v>
+      </c>
+      <c r="N19">
+        <v>227.52699999999999</v>
+      </c>
+      <c r="O19">
+        <v>191.97399999999999</v>
+      </c>
+      <c r="P19">
+        <v>208.375</v>
+      </c>
+      <c r="Q19">
+        <v>206.40600000000001</v>
+      </c>
+      <c r="R19">
+        <v>260.74599999999998</v>
+      </c>
+      <c r="S19">
+        <v>147.30000000000001</v>
+      </c>
+      <c r="T19">
+        <v>211.14500000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>196.74199999999999</v>
+      </c>
+      <c r="B20">
+        <v>259.93200000000002</v>
+      </c>
+      <c r="C20">
+        <v>204.05600000000001</v>
+      </c>
+      <c r="D20">
+        <v>183.441</v>
+      </c>
+      <c r="E20">
+        <v>204.05600000000001</v>
+      </c>
+      <c r="F20">
+        <v>188.22499999999999</v>
+      </c>
+      <c r="G20">
+        <v>188.22499999999999</v>
+      </c>
+      <c r="H20">
+        <v>171.54</v>
+      </c>
+      <c r="I20">
+        <v>161.97399999999999</v>
+      </c>
+      <c r="J20">
+        <v>131.053</v>
+      </c>
+      <c r="K20">
+        <v>171.54</v>
+      </c>
+      <c r="L20">
+        <v>188.22499999999999</v>
+      </c>
+      <c r="M20">
+        <v>175.71299999999999</v>
+      </c>
+      <c r="N20">
+        <v>131.053</v>
+      </c>
+      <c r="O20">
+        <v>159.59299999999999</v>
+      </c>
+      <c r="P20">
+        <v>173.023</v>
+      </c>
+      <c r="Q20">
+        <v>227.19800000000001</v>
+      </c>
+      <c r="R20">
+        <v>160.858</v>
+      </c>
+      <c r="S20">
+        <v>161.97399999999999</v>
+      </c>
+      <c r="T20">
+        <v>183.441</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>74.488900000000001</v>
+      </c>
+      <c r="B21">
+        <v>157.13300000000001</v>
+      </c>
+      <c r="C21">
+        <v>217.94800000000001</v>
+      </c>
+      <c r="D21">
+        <v>234.89699999999999</v>
+      </c>
+      <c r="E21">
+        <v>217.94800000000001</v>
+      </c>
+      <c r="F21">
+        <v>202.09899999999999</v>
+      </c>
+      <c r="G21">
+        <v>202.09899999999999</v>
+      </c>
+      <c r="H21">
+        <v>224.28</v>
+      </c>
+      <c r="I21">
+        <v>239.00899999999999</v>
+      </c>
+      <c r="J21">
+        <v>196.62299999999999</v>
+      </c>
+      <c r="K21">
+        <v>175.452</v>
+      </c>
+      <c r="L21">
+        <v>202.09899999999999</v>
+      </c>
+      <c r="M21">
+        <v>268.05</v>
+      </c>
+      <c r="N21">
+        <v>221.44</v>
+      </c>
+      <c r="O21">
+        <v>193.93700000000001</v>
+      </c>
+      <c r="P21">
+        <v>178.05500000000001</v>
+      </c>
+      <c r="Q21">
+        <v>142.55199999999999</v>
+      </c>
+      <c r="R21">
+        <v>242.20599999999999</v>
+      </c>
+      <c r="S21">
+        <v>200.33600000000001</v>
+      </c>
+      <c r="T21">
+        <v>234.89699999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>215.83600000000001</v>
+      </c>
+      <c r="B22">
+        <v>194.678</v>
+      </c>
+      <c r="C22">
+        <v>162.24799999999999</v>
+      </c>
+      <c r="D22">
+        <v>266.07299999999998</v>
+      </c>
+      <c r="E22">
+        <v>162.24799999999999</v>
+      </c>
+      <c r="F22">
+        <v>202.267</v>
+      </c>
+      <c r="G22">
+        <v>202.267</v>
+      </c>
+      <c r="H22">
+        <v>245.874</v>
+      </c>
+      <c r="I22">
+        <v>230.441</v>
+      </c>
+      <c r="J22">
+        <v>182.31299999999999</v>
+      </c>
+      <c r="K22">
+        <v>168.095</v>
+      </c>
+      <c r="L22">
+        <v>202.267</v>
+      </c>
+      <c r="M22">
+        <v>211.77199999999999</v>
+      </c>
+      <c r="N22">
+        <v>180.25299999999999</v>
+      </c>
+      <c r="O22">
+        <v>175.80500000000001</v>
+      </c>
+      <c r="P22">
+        <v>222.79400000000001</v>
+      </c>
+      <c r="Q22">
+        <v>215.30099999999999</v>
+      </c>
+      <c r="R22">
+        <v>149.66800000000001</v>
+      </c>
+      <c r="S22">
+        <v>169.65199999999999</v>
+      </c>
+      <c r="T22">
+        <v>266.07299999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>253.30199999999999</v>
+      </c>
+      <c r="B23">
+        <v>186.822</v>
+      </c>
+      <c r="C23">
+        <v>229.93199999999999</v>
+      </c>
+      <c r="D23">
+        <v>203.26599999999999</v>
+      </c>
+      <c r="E23">
+        <v>169.09700000000001</v>
+      </c>
+      <c r="F23">
+        <v>254.227</v>
+      </c>
+      <c r="G23">
+        <v>211.96299999999999</v>
+      </c>
+      <c r="H23">
+        <v>214.727</v>
+      </c>
+      <c r="I23">
+        <v>238.50399999999999</v>
+      </c>
+      <c r="J23">
+        <v>206.971</v>
+      </c>
+      <c r="K23">
+        <v>208.00399999999999</v>
+      </c>
+      <c r="L23">
+        <v>88.638300000000001</v>
+      </c>
+      <c r="M23">
+        <v>171.26599999999999</v>
+      </c>
+      <c r="N23">
+        <v>184.155</v>
+      </c>
+      <c r="O23">
+        <v>194.22499999999999</v>
+      </c>
+      <c r="P23">
+        <v>299.47399999999999</v>
+      </c>
+      <c r="Q23">
+        <v>217.71799999999999</v>
+      </c>
+      <c r="R23">
+        <v>193.44399999999999</v>
+      </c>
+      <c r="S23">
+        <v>246.666</v>
+      </c>
+      <c r="T23">
+        <v>203.727</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>180.80500000000001</v>
+      </c>
+      <c r="B24">
+        <v>186.923</v>
+      </c>
+      <c r="C24">
+        <v>195.065</v>
+      </c>
+      <c r="D24">
+        <v>136.023</v>
+      </c>
+      <c r="E24">
+        <v>202.68600000000001</v>
+      </c>
+      <c r="F24">
+        <v>212.899</v>
+      </c>
+      <c r="G24">
+        <v>215.18899999999999</v>
+      </c>
+      <c r="H24">
+        <v>148.196</v>
+      </c>
+      <c r="I24">
+        <v>172.15100000000001</v>
+      </c>
+      <c r="J24">
+        <v>264.27100000000002</v>
+      </c>
+      <c r="K24">
+        <v>134.178</v>
+      </c>
+      <c r="L24">
+        <v>212.11500000000001</v>
+      </c>
+      <c r="M24">
+        <v>225.79400000000001</v>
+      </c>
+      <c r="N24">
+        <v>211.89099999999999</v>
+      </c>
+      <c r="O24">
+        <v>125.3</v>
+      </c>
+      <c r="P24">
+        <v>247.81200000000001</v>
+      </c>
+      <c r="Q24">
+        <v>200.143</v>
+      </c>
+      <c r="R24">
+        <v>198.453</v>
+      </c>
+      <c r="S24">
+        <v>178.357</v>
+      </c>
+      <c r="T24">
+        <v>134.483</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>